--- a/Ice cream rankins.xlsx
+++ b/Ice cream rankins.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anish\Desktop\ICECREME\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anish\Desktop\new  older\ICECREME\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7FE61D5-2375-4FBC-8BCF-A5D473AA87A5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23DDA9F6-7F30-43DC-AB77-C60D87E11E4F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="27870" windowHeight="12810" xr2:uid="{37FACC60-675D-4651-A36C-2E5553EBFCA0}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Taste</t>
   </si>
@@ -52,6 +52,9 @@
   </si>
   <si>
     <t>Criterea (0/10 Star Rating)</t>
+  </si>
+  <si>
+    <t>Amorino</t>
   </si>
 </sst>
 </file>
@@ -459,7 +462,7 @@
   <dimension ref="C3:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -505,32 +508,50 @@
     </row>
     <row r="5" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D5">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E5">
         <v>8</v>
       </c>
       <c r="F5">
+        <v>7</v>
+      </c>
+      <c r="G5">
         <v>8</v>
       </c>
-      <c r="G5">
-        <v>6</v>
-      </c>
       <c r="H5">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I5">
         <f>(SUM(D5:H5)/5)</f>
-        <v>6.6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6">
+        <v>6</v>
+      </c>
+      <c r="E6">
+        <v>8</v>
+      </c>
+      <c r="F6">
+        <v>8</v>
+      </c>
+      <c r="G6">
+        <v>6</v>
+      </c>
+      <c r="H6">
+        <v>5</v>
+      </c>
       <c r="I6">
         <f>(SUM(D6:H6)/5)</f>
-        <v>0</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="7" spans="3:9" x14ac:dyDescent="0.25">
